--- a/DataPSNR.xlsx
+++ b/DataPSNR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>File Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PSNR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>MSE</t>
         </is>
@@ -449,10 +454,15 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CrowGSM.jpg</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>32.7767420813213</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>34.30884933430299</v>
       </c>
     </row>
@@ -460,10 +470,15 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GSM_TE.jpg</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>30.35833153696467</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>59.87523172072117</v>
       </c>
     </row>

--- a/DataPSNR.xlsx
+++ b/DataPSNR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>MSE</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>message</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -456,14 +466,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CrowGSM.jpg</t>
+          <t>348245721_986276449078619_5047874430329954653_n.jpg</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.7767420813213</v>
+        <v>31.78839179325521</v>
       </c>
       <c r="D2" t="n">
-        <v>34.30884933430299</v>
+        <v>43.07657659808125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99.65786825605697</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -472,14 +490,406 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSM_TE.jpg</t>
+          <t>348253316_286341440399994_3977899691667612623_n (1).jpg</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30.35833153696467</v>
+        <v>29.09013346171859</v>
       </c>
       <c r="D3" t="n">
-        <v>59.87523172072117</v>
+        <v>80.18017775015201</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84.72286767667379</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>348258112_149375311449898_1030057181145785500_n.jpg</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29.4676917292506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.50403629176566</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70.22280835704866</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>348258118_166873812748068_7261618309906846396_n.jpg</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29.67579489293739</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70.06495889792296</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60.90472265849752</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>348259577_3672318366329072_6852524068800097332_n.jpg</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31.39204788270788</v>
+      </c>
+      <c r="D6" t="n">
+        <v>47.19278123643663</v>
+      </c>
+      <c r="E6" t="n">
+        <v>92.06007237131084</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>348274617_609725174553048_6129995834437796340_n.jpg</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29.29259061467029</v>
+      </c>
+      <c r="D7" t="n">
+        <v>76.52816491244654</v>
+      </c>
+      <c r="E7" t="n">
+        <v>79.23588812881009</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>348277668_215795167903837_346872460203089026_n.jpg</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30.58856139238614</v>
+      </c>
+      <c r="D8" t="n">
+        <v>56.78376983155126</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96.39928698752229</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>348278885_788418016028847_8322077596112281063_n.jpg</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32.59931740087595</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.73951221243394</v>
+      </c>
+      <c r="E9" t="n">
+        <v>98.35534512833291</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>348279454_200637279525335_8960046488163277399_n.jpg</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>32.73478522217501</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.64191076490614</v>
+      </c>
+      <c r="E10" t="n">
+        <v>98.28241530211822</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>348281433_172341312160949_780906785901959565_n.jpg</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30.48405462486121</v>
+      </c>
+      <c r="D11" t="n">
+        <v>58.16676334092882</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99.74922600619195</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>348286291_1411119606314164_6764519350406758520_n.jpg</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>29.30891975245831</v>
+      </c>
+      <c r="D12" t="n">
+        <v>76.24096517355457</v>
+      </c>
+      <c r="E12" t="n">
+        <v>97.61764705882354</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>348290612_9671342026209280_687172332911433066_n.jpg</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>31.62461924981731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.73201232486301</v>
+      </c>
+      <c r="E13" t="n">
+        <v>98.41123454202473</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>348290732_983148689720195_1433399884350912111_n.jpg</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>29.24424157359562</v>
+      </c>
+      <c r="D14" t="n">
+        <v>77.38489604294342</v>
+      </c>
+      <c r="E14" t="n">
+        <v>70.50071220660185</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>348293643_1008193750169163_7512227829878116570_n.jpg</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>29.46028922639986</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73.62942996876666</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87.52786377708978</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>348295037_154331337471307_2684128798529894452_n.jpg</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>29.96926270121412</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65.48684848111606</v>
+      </c>
+      <c r="E16" t="n">
+        <v>93.60729168292417</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>348445005_765369275090342_4579776446496693690_n.jpg</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>30.0056747676532</v>
+      </c>
+      <c r="D17" t="n">
+        <v>64.94008968996668</v>
+      </c>
+      <c r="E17" t="n">
+        <v>97.62827468609518</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>348445689_916064202944566_7184817409957505795_n.jpg</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>32.13557377693779</v>
+      </c>
+      <c r="D18" t="n">
+        <v>39.76701409055683</v>
+      </c>
+      <c r="E18" t="n">
+        <v>98.75310173697271</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>348455138_912418926510176_388428662127760245_n.jpg</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>29.38475505254416</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.92122257056783</v>
+      </c>
+      <c r="E19" t="n">
+        <v>93.96642670969344</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>@ThomasGreeley5432</t>
+        </is>
       </c>
     </row>
   </sheetData>
